--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail11 Features.xlsx
@@ -6236,7 +6236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,29 +6247,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6290,115 +6288,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6415,72 +6403,66 @@
         <v>2.827110367073677e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.043359668745373</v>
+        <v>1.442454420195762e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.079404470015118</v>
+        <v>1.820995462467015e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.442454420195762e-06</v>
+        <v>-0.08508367593143237</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.820995462467015e-06</v>
+        <v>0.1560419923053628</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08508367593143237</v>
+        <v>0.03154318449276608</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1560419923053628</v>
+        <v>1.81731101739453</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03154318449276608</v>
+        <v>1.743057130339565</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.78210192455591</v>
+        <v>3.422924268784496</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.743057130339565</v>
+        <v>1.223871477301967e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.422924268784496</v>
+        <v>105686385.5712386</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.223871477301967e-15</v>
+        <v>1.112966632091818e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>105686385.5712386</v>
+        <v>13.67016965573527</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.112966632091818e-06</v>
+        <v>0.0001805398956007235</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.67016965573527</v>
+        <v>11.97512466498707</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001805398956007235</v>
+        <v>1.036926402976515</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.97512466498707</v>
+        <v>0.02589007291212417</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.036926402976515</v>
+        <v>2.554798429389072</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02589007291212417</v>
+        <v>0.9551386724795566</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.554798429389072</v>
+        <v>1.566212691592592</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9551386724795566</v>
+        <v>211</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.566212691592592</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2581081498462571</v>
       </c>
     </row>
@@ -6495,72 +6477,66 @@
         <v>2.455136080110929e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.876069694820715</v>
+        <v>1.237175533526562e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.318631652981399</v>
+        <v>1.798715537501225e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.237175533526562e-06</v>
+        <v>-0.08403156388883865</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.798715537501225e-06</v>
+        <v>0.1471767479317956</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08403156388883865</v>
+        <v>0.02867888316152084</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1471767479317956</v>
+        <v>1.846220780430215</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02867888316152084</v>
+        <v>1.635903513544207</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.825097945243493</v>
+        <v>3.636916801561845</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.635903513544207</v>
+        <v>9.059522588725009e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.636916801561845</v>
+        <v>142267479.708607</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.059522588725009e-16</v>
+        <v>8.326349549100177e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>142267479.708607</v>
+        <v>18.33650613694196</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.326349549100177e-07</v>
+        <v>0.0002140721220210058</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>18.33650613694196</v>
+        <v>12.9268926927993</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002140721220210058</v>
+        <v>1.004405837426138</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.9268926927993</v>
+        <v>0.03577242662210926</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.004405837426138</v>
+        <v>2.209486824338662</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03577242662210926</v>
+        <v>0.9561157178538604</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.209486824338662</v>
+        <v>1.585862699785969</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9561157178538604</v>
+        <v>211</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.585862699785969</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2522377648775113</v>
       </c>
     </row>
@@ -6575,72 +6551,66 @@
         <v>2.161575673607334e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.707191960006558</v>
+        <v>1.064566538879251e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.572108597387609</v>
+        <v>1.779585244291062e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.064566538879251e-06</v>
+        <v>-0.08212540499659544</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.779585244291062e-06</v>
+        <v>0.1345806204194561</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08212540499659544</v>
+        <v>0.02481893234662344</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1345806204194561</v>
+        <v>1.874222907230689</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02481893234662344</v>
+        <v>1.896189659250634</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.869208609876236</v>
+        <v>3.451269362305397</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.896189659250634</v>
+        <v>7.393480689361103e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.451269362305397</v>
+        <v>168645265.4697473</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.393480689361103e-16</v>
+        <v>7.074798763107619e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>168645265.4697473</v>
+        <v>21.02796519992638</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.074798763107619e-07</v>
+        <v>0.0002365238834763199</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.02796519992638</v>
+        <v>13.61206084158937</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002365238834763199</v>
+        <v>0.998813125372658</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.61206084158937</v>
+        <v>0.04382508471033396</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.998813125372658</v>
+        <v>2.187373947201201</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04382508471033396</v>
+        <v>0.9582443463670771</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.187373947201201</v>
+        <v>1.498225681575746</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9582443463670771</v>
+        <v>211</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.498225681575746</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2926099659790627</v>
       </c>
     </row>
@@ -6655,72 +6625,66 @@
         <v>1.933009153290951e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.554471580656478</v>
+        <v>9.280355285281638e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.948830295562762</v>
+        <v>1.763027444552625e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.280355285281638e-07</v>
+        <v>-0.08005364841121174</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.763027444552625e-06</v>
+        <v>0.1221245164564146</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08005364841121174</v>
+        <v>0.02129389903042933</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1221245164564146</v>
+        <v>1.88624517711329</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02129389903042933</v>
+        <v>1.667038327830466</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.893931547430793</v>
+        <v>3.883490398218272</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.667038327830466</v>
+        <v>6.608957849256369e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.883490398218272</v>
+        <v>185670629.433221</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.608957849256369e-16</v>
+        <v>6.439078420304853e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>185670629.433221</v>
+        <v>22.78344545418114</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.439078420304853e-07</v>
+        <v>0.0002693523273242487</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>22.78344545418114</v>
+        <v>12.48188687354425</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002693523273242487</v>
+        <v>1.226630998415806</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.48188687354425</v>
+        <v>0.04196441919581712</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.226630998415806</v>
+        <v>2.315461346975161</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.04196441919581712</v>
+        <v>0.9583882456592365</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.315461346975161</v>
+        <v>1.386885211017918</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9583882456592365</v>
+        <v>211</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.386885211017918</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3790100681227179</v>
       </c>
     </row>
@@ -6735,72 +6699,66 @@
         <v>1.753991175704435e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.421160381687376</v>
+        <v>8.230382808932915e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.465947379247565</v>
+        <v>1.748476168882477e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.230382808932915e-07</v>
+        <v>-0.07823736486933851</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.748476168882477e-06</v>
+        <v>0.1121014889903771</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07823736486933851</v>
+        <v>0.01866687309139066</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1121014889903771</v>
+        <v>1.881487702678382</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01866687309139066</v>
+        <v>1.67397479938187</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.88741683877435</v>
+        <v>4.904621793888522</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.67397479938187</v>
+        <v>3.374801220755746e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.904621793888522</v>
+        <v>359127299.8622826</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.374801220755746e-16</v>
+        <v>3.323886807391662e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>359127299.8622826</v>
+        <v>43.52562720443301</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.323886807391662e-07</v>
+        <v>0.0002727666984850293</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>43.52562720443301</v>
+        <v>11.65087684193838</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002727666984850293</v>
+        <v>1.369852607453297</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.65087684193838</v>
+        <v>0.03702615118229011</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.369852607453297</v>
+        <v>2.531513297457779</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03702615118229011</v>
+        <v>0.9580705051064019</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.531513297457779</v>
+        <v>1.391104693703765</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9580705051064019</v>
+        <v>218</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.391104693703765</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.7247523429678683</v>
       </c>
     </row>
@@ -6815,72 +6773,66 @@
         <v>1.611222688788746e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.300798699543187</v>
+        <v>7.455164253843733e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.089022041561464</v>
+        <v>1.735439239494835e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.455164253843733e-07</v>
+        <v>-0.07714311544537046</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.735439239494835e-06</v>
+        <v>0.105821455362116</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07714311544537046</v>
+        <v>0.01713455929507078</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.105821455362116</v>
+        <v>1.900143345516956</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01713455929507078</v>
+        <v>1.817893641787712</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.912259758430821</v>
+        <v>5.588487057763627</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.817893641787712</v>
+        <v>1.348510505156406e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.588487057763627</v>
+        <v>931564930.9318265</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.348510505156406e-16</v>
+        <v>1.285701369580462e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>931564930.9318265</v>
+        <v>117.0255244414525</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.285701369580462e-07</v>
+        <v>0.000217782292618267</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>117.0255244414525</v>
+        <v>10.67449842124275</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000217782292618267</v>
+        <v>1.462140345174746</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.67449842124275</v>
+        <v>0.02481518515739204</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.462140345174746</v>
+        <v>3.236444432809477</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02481518515739204</v>
+        <v>0.958754311483184</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.236444432809477</v>
+        <v>1.362791937536121</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.958754311483184</v>
+        <v>218</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.362791937536121</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.517903563744223</v>
       </c>
     </row>
@@ -6895,72 +6847,66 @@
         <v>1.494971101963335e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.182223009928004</v>
+        <v>6.878631870041447e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.7669983341298896</v>
+        <v>1.723514769684647e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.878631870041447e-07</v>
+        <v>-0.07671022109498006</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.723514769684647e-06</v>
+        <v>0.1023021211831446</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07671022109498006</v>
+        <v>0.0163382888666536</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1023021211831446</v>
+        <v>1.902054859954412</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0163382888666536</v>
+        <v>2.052980565831756</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.921249456768843</v>
+        <v>4.808220543408504</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.052980565831756</v>
+        <v>7.134680326479222e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.808220543408504</v>
+        <v>1752231105.621602</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.134680326479222e-17</v>
+        <v>6.874255176320306e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1752231105.621602</v>
+        <v>219.0570780393134</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.874255176320306e-08</v>
+        <v>0.0001642053748904313</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>219.0570780393134</v>
+        <v>8.981371126219326</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001642053748904313</v>
+        <v>1.725961134733827</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.981371126219326</v>
+        <v>0.01324563104947412</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.725961134733827</v>
+        <v>3.634360825268788</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01324563104947412</v>
+        <v>0.9594858703698669</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.634360825268788</v>
+        <v>1.26353609152838</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9594858703698669</v>
+        <v>218</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.26353609152838</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.405260964244204</v>
       </c>
     </row>
@@ -6975,72 +6921,66 @@
         <v>1.400492853936448e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.061149449766721</v>
+        <v>6.405848029788298e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.4896168658525446</v>
+        <v>1.712456121327893e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.405848029788298e-07</v>
+        <v>-0.0762566768114246</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.712456121327893e-06</v>
+        <v>0.09900808835815582</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0762566768114246</v>
+        <v>0.01560683737249343</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09900808835815582</v>
+        <v>1.909609619893041</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01560683737249343</v>
+        <v>2.291434320560293</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.929892914332915</v>
+        <v>4.59970839154402</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.291434320560293</v>
+        <v>6.173556883292165e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.59970839154402</v>
+        <v>2031990626.265178</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.173556883292165e-17</v>
+        <v>5.927716858483554e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2031990626.265178</v>
+        <v>254.9052935624622</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.927716858483554e-08</v>
+        <v>0.0001389250359737575</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>254.9052935624622</v>
+        <v>8.995925415758535</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001389250359737575</v>
+        <v>1.347553480632148</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.995925415758535</v>
+        <v>0.01124274110861887</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.347553480632148</v>
+        <v>3.379481835274579</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01124274110861887</v>
+        <v>0.9603149881146806</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.379481835274579</v>
+        <v>1.233198222095466</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9603149881146806</v>
+        <v>218</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.233198222095466</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.8356950601775412</v>
       </c>
     </row>
@@ -7055,72 +6995,66 @@
         <v>1.325819855262829e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9399743925739203</v>
+        <v>6.020367993626636e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.280019715646139</v>
+        <v>1.702113293981556e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.020367993626636e-07</v>
+        <v>-0.07570347694747721</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.702113293981556e-06</v>
+        <v>0.09578560662110448</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07570347694747721</v>
+        <v>0.01489651163039329</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09578560662110448</v>
+        <v>1.914361024917093</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01489651163039329</v>
+        <v>2.497921851381319</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.935172068329719</v>
+        <v>4.320898868803637</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.497921851381319</v>
+        <v>6.995968570060391e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.320898868803637</v>
+        <v>1789598573.034116</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.995968570060391e-17</v>
+        <v>6.741610401797591e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1789598573.034116</v>
+        <v>224.0573005652345</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.741610401797591e-08</v>
+        <v>0.0001434888541962156</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>224.0573005652345</v>
+        <v>9.974329084218416</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001434888541962156</v>
+        <v>1.155835876998963</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.974329084218416</v>
+        <v>0.01427531017235728</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.155835876998963</v>
+        <v>3.069149957028749</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01427531017235728</v>
+        <v>0.9604090412941467</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.069149957028749</v>
+        <v>1.246960875151807</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9604090412941467</v>
+        <v>218</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.246960875151807</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5977079808320267</v>
       </c>
     </row>
@@ -7135,72 +7069,66 @@
         <v>1.268702494926288e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8177980158450858</v>
+        <v>5.742016014743117e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.145446484407072</v>
+        <v>1.692329230591009e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.742016014743117e-07</v>
+        <v>-0.07545099534801981</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.692329230591009e-06</v>
+        <v>0.09382829126936264</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07545099534801981</v>
+        <v>0.01448985272604248</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09382829126936264</v>
+        <v>1.917877557808087</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01448985272604248</v>
+        <v>2.492170826060242</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.93934825601237</v>
+        <v>4.084288094336685</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.492170826060242</v>
+        <v>8.809379616791051e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.084288094336685</v>
+        <v>1388076901.405101</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.809379616791051e-17</v>
+        <v>8.723824797314465e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1388076901.405101</v>
+        <v>169.7353810793782</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.723824797314465e-08</v>
+        <v>0.0001490040311498372</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>169.7353810793782</v>
+        <v>10.77599509569998</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001490040311498372</v>
+        <v>1.099180700404844</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.77599509569998</v>
+        <v>0.01730265658054474</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.099180700404844</v>
+        <v>2.898372961324647</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01730265658054474</v>
+        <v>0.9596779638906587</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.898372961324647</v>
+        <v>1.239711346675208</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9596779638906587</v>
+        <v>218</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.239711346675208</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5833428434153709</v>
       </c>
     </row>
@@ -7215,72 +7143,66 @@
         <v>1.225621646074014e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6876461370272551</v>
+        <v>5.552244064110391e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.0632583656098813</v>
+        <v>1.682924556085714e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.552244064110391e-07</v>
+        <v>-0.07551658224496081</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.682924556085714e-06</v>
+        <v>0.09356498246031672</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07551658224496081</v>
+        <v>0.01445289056565975</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09356498246031672</v>
+        <v>1.767403799695543</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01445289056565975</v>
+        <v>1.354871120435883</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.811993388706234</v>
+        <v>27.22620967506488</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.354871120435883</v>
+        <v>3.292947882656634e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>27.22620967506488</v>
+        <v>3286428988.159255</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.292947882656634e-16</v>
+        <v>3.316489272234356e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3286428988.159255</v>
+        <v>3556.586392305866</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.316489272234356e-08</v>
+        <v>0.0001650349964173238</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3556.586392305866</v>
+        <v>10.19324619105901</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001650349964173238</v>
+        <v>1.380886478177051</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.19324619105901</v>
+        <v>0.01714751041253264</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.380886478177051</v>
+        <v>3.430408096735593</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01714751041253264</v>
+        <v>0.9603545138597998</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.430408096735593</v>
+        <v>0.8566145254431634</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9603545138597998</v>
+        <v>190</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8566145254431634</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.9882305626758123</v>
       </c>
     </row>
@@ -7295,72 +7217,66 @@
         <v>1.192709003637166e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5475385612837174</v>
+        <v>5.401477703707463e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.006924679366368647</v>
+        <v>1.673799950878676e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.401477703707463e-07</v>
+        <v>-0.07548940860791141</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.673799950878676e-06</v>
+        <v>0.09403515955255648</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.07548940860791141</v>
+        <v>0.01453845080108296</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09403515955255648</v>
+        <v>1.758888028695849</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01453845080108296</v>
+        <v>1.343829415756393</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.805165585924939</v>
+        <v>25.2170038977399</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.343829415756393</v>
+        <v>3.838594667499793e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>25.2170038977399</v>
+        <v>2816501112.370193</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.838594667499793e-16</v>
+        <v>3.868553875162572e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2816501112.370193</v>
+        <v>3045.033745044073</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.868553875162572e-08</v>
+        <v>0.0001244118429910087</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3045.033745044073</v>
+        <v>10.03005981975481</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001244118429910087</v>
+        <v>1.666810909001893</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.03005981975481</v>
+        <v>0.01251609266825537</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.666810909001893</v>
+        <v>5.375002353158544</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01251609266825537</v>
+        <v>0.9615729346115767</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.375002353158544</v>
+        <v>0.7264829603247072</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9615729346115767</v>
+        <v>149</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7264829603247072</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.765574322075353</v>
       </c>
     </row>
@@ -7375,72 +7291,66 @@
         <v>1.166992999515684e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4001087779575385</v>
+        <v>5.268206868838652e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.04365594695582553</v>
+        <v>1.66491002461421e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.268206868838652e-07</v>
+        <v>-0.07524597281993493</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.66491002461421e-06</v>
+        <v>0.09477479077114083</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07524597281993493</v>
+        <v>0.01464240691181213</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09477479077114083</v>
+        <v>1.756723348941432</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01464240691181213</v>
+        <v>1.340525845328026</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.802605803706288</v>
+        <v>23.72620820361542</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.340525845328026</v>
+        <v>4.3361325797173e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>23.72620820361542</v>
+        <v>2492920147.124002</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.3361325797173e-16</v>
+        <v>4.370590933516219e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2492920147.124002</v>
+        <v>2694.75500653399</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.370590933516219e-08</v>
+        <v>5.240478380340735e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2694.75500653399</v>
+        <v>9.943930126944229</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>5.240478380340735e-05</v>
+        <v>1.465184960653408</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.943930126944229</v>
+        <v>0.005181876540599579</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.465184960653408</v>
+        <v>6.826173999561566</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005181876540599579</v>
+        <v>0.9618456006951243</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>6.826173999561566</v>
+        <v>0.837868792740577</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9618456006951243</v>
+        <v>102</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.837868792740577</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>6.157989171904974</v>
       </c>
     </row>
@@ -7455,72 +7365,66 @@
         <v>1.146134846465527e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2500689210897948</v>
+        <v>5.132377881374401e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.1044909497529249</v>
+        <v>1.656240531552388e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.132377881374401e-07</v>
+        <v>-0.07463758271145141</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.656240531552388e-06</v>
+        <v>0.09560625709192584</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07463758271145141</v>
+        <v>0.01470997868913965</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09560625709192584</v>
+        <v>1.752123371156043</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01470997868913965</v>
+        <v>1.335493113380585</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.797669606821561</v>
+        <v>22.3147888793915</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.335493113380585</v>
+        <v>4.902004009457082e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>22.3147888793915</v>
+        <v>2204791772.07668</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.902004009457082e-16</v>
+        <v>4.94166104971944e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2204791772.07668</v>
+        <v>2382.916481917878</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.94166104971944e-08</v>
+        <v>3.26296807331309e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2382.916481917878</v>
+        <v>10.34923959343363</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>3.26296807331309e-05</v>
+        <v>1.165099803303636</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.34923959343363</v>
+        <v>0.003494859388455686</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.165099803303636</v>
+        <v>7.279841380982905</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.003494859388455686</v>
+        <v>0.9619713794544499</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>7.279841380982905</v>
+        <v>0.8488665569003357</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9619713794544499</v>
+        <v>55</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8488665569003357</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>7.250860730593081</v>
       </c>
     </row>
@@ -7535,72 +7439,66 @@
         <v>1.128438144919034e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1047358836282918</v>
+        <v>4.969394786925866e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1846897440314539</v>
+        <v>1.647817405438223e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.969394786925866e-07</v>
+        <v>-0.07339855327408705</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.647817405438223e-06</v>
+        <v>0.09647390053923177</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07339855327408705</v>
+        <v>0.0146933538534835</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09647390053923177</v>
+        <v>1.748228748972909</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0146933538534835</v>
+        <v>1.332193246293201</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.793636932679709</v>
+        <v>20.75517058631112</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.332193246293201</v>
+        <v>5.666391957981127e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>20.75517058631112</v>
+        <v>1907093670.923121</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.666391957981127e-16</v>
+        <v>5.712842572466922e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1907093670.923121</v>
+        <v>2060.870307761351</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.712842572466922e-08</v>
+        <v>2.92203051302818e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2060.870307761351</v>
+        <v>10.89544360532513</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.92203051302818e-05</v>
+        <v>1.1102884865819</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.89544360532513</v>
+        <v>0.003468762623672998</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.1102884865819</v>
+        <v>7.387669390565312</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.003468762623672998</v>
+        <v>0.9629313454726306</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>7.387669390565312</v>
+        <v>0.7494340512487595</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9629313454726306</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7494340512487595</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>7.668700421463643</v>
       </c>
     </row>
@@ -7615,72 +7513,66 @@
         <v>1.112508052248976e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.0270898033704772</v>
+        <v>4.776211702745793e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.2875663179354264</v>
+        <v>1.639700857977991e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.776211702745793e-07</v>
+        <v>-0.07132812798280347</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.639700857977991e-06</v>
+        <v>0.0976080500168453</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07132812798280347</v>
+        <v>0.0146135577490772</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0976080500168453</v>
+        <v>1.747681064075877</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0146135577490772</v>
+        <v>1.334869147512206</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.790141013318156</v>
+        <v>18.9424872917601</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.334869147512206</v>
+        <v>6.802761069271083e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>18.9424872917601</v>
+        <v>1588551622.689803</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.802761069271083e-16</v>
+        <v>6.858557232811412e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1588551622.689803</v>
+        <v>1716.674210203628</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.858557232811412e-08</v>
+        <v>2.909206056906097e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1716.674210203628</v>
+        <v>11.14263544327341</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.909206056906097e-05</v>
+        <v>1.130120158653177</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.14263544327341</v>
+        <v>0.003612021500047421</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.130120158653177</v>
+        <v>7.483263867582846</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.003612021500047421</v>
+        <v>0.9626846743002099</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.483263867582846</v>
+        <v>0.8615315905929058</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9626846743002099</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8615315905929058</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>7.759561095587021</v>
       </c>
     </row>
@@ -7695,72 +7587,66 @@
         <v>1.097059774877785e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.136511123671664</v>
+        <v>4.575006230942287e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4106477511366031</v>
+        <v>1.631983118159523e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.575006230942287e-07</v>
+        <v>-0.06818095448932668</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.631983118159523e-06</v>
+        <v>0.09948605227534904</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06818095448932668</v>
+        <v>0.01454387528188491</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09948605227534904</v>
+        <v>1.742254075596224</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01454387528188491</v>
+        <v>1.331282243361227</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.780054770643229</v>
+        <v>16.80071485676434</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.331282243361227</v>
+        <v>8.64776152521575e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>16.80071485676434</v>
+        <v>1249259797.150866</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.64776152521575e-16</v>
+        <v>8.720728323058798e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1249259797.150866</v>
+        <v>1349.612937696139</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>8.720728323058798e-08</v>
+        <v>3.963720519567026e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1349.612937696139</v>
+        <v>11.79108412867467</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.963720519567026e-05</v>
+        <v>1.331375984518993</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.79108412867467</v>
+        <v>0.005510747357095224</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.331375984518993</v>
+        <v>7.401892049671158</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.005510747357095224</v>
+        <v>0.9617357886879428</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>7.401892049671158</v>
+        <v>0.89007126749583</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9617357886879428</v>
+        <v>10</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.89007126749583</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>7.493004360077292</v>
       </c>
     </row>
@@ -7775,72 +7661,66 @@
         <v>1.080659207092065e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2170545424393448</v>
+        <v>4.371616440102802e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5461533719517822</v>
+        <v>1.624783004616484e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.371616440102802e-07</v>
+        <v>-0.0638221004901809</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.624783004616484e-06</v>
+        <v>0.1031561476356311</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0638221004901809</v>
+        <v>0.01471076064059476</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1031561476356311</v>
+        <v>1.738613399894143</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01471076064059476</v>
+        <v>1.328213725715532</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.772295214580834</v>
+        <v>14.64460257673551</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.328213725715532</v>
+        <v>1.138161906791612e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>14.64460257673551</v>
+        <v>948949090.0947832</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.138161906791612e-15</v>
+        <v>1.147993456454132e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>948949090.0947832</v>
+        <v>1024.919777197658</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.147993456454132e-07</v>
+        <v>4.225145932548617e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1024.919777197658</v>
+        <v>11.58926995525279</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>4.225145932548617e-05</v>
+        <v>1.301607430678077</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.58926995525279</v>
+        <v>0.005674843278269654</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.301607430678077</v>
+        <v>7.256905871212049</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005674843278269654</v>
+        <v>0.9620784948500757</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>7.256905871212049</v>
+        <v>0.8242765608150269</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9620784948500757</v>
+        <v>10</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8242765608150269</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>7.168179155449447</v>
       </c>
     </row>
@@ -7855,72 +7735,66 @@
         <v>1.061750948689982e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2684696501322165</v>
+        <v>4.174799524271567e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6812592321741038</v>
+        <v>1.618226232373221e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.174799524271567e-07</v>
+        <v>-0.05843513603239558</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.618226232373221e-06</v>
+        <v>0.1093897356239607</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05843513603239558</v>
+        <v>0.01537595418974793</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1093897356239607</v>
+        <v>1.690637012922446</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01537595418974793</v>
+        <v>1.329645970001196</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.711694983942021</v>
+        <v>14.14213825804593</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.329645970001196</v>
+        <v>1.220475510063622e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>14.14213825804593</v>
+        <v>884966927.2186457</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.220475510063622e-15</v>
+        <v>1.230613011966429e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>884966927.2186457</v>
+        <v>955.8354875046909</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.230613011966429e-07</v>
+        <v>3.643784065999571e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>955.8354875046909</v>
+        <v>11.47802931146029</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>3.643784065999571e-05</v>
+        <v>1.10096950561856</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.47802931146029</v>
+        <v>0.004800509033927975</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.10096950561856</v>
+        <v>7.213519325155949</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004800509033927975</v>
+        <v>0.9550779068480522</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.213519325155949</v>
+        <v>0.8973756072599384</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9550779068480522</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8973756072599384</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>7.234611933911995</v>
       </c>
     </row>
@@ -7935,72 +7809,66 @@
         <v>1.040451688257564e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2981991691557523</v>
+        <v>3.98847404677582e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8015839406595369</v>
+        <v>1.612338481448138e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.98847404677582e-07</v>
+        <v>-0.05381129927415933</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.612338481448138e-06</v>
+        <v>0.1143699797177726</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05381129927415933</v>
+        <v>0.01597351477134517</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1143699797177726</v>
+        <v>1.625666590587077</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01597351477134517</v>
+        <v>1.222586743968569</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.68650968353927</v>
+        <v>31.22038318922315</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.222586743968569</v>
+        <v>3.503073988475469e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>31.22038318922315</v>
+        <v>908464579.8271672</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.503073988475469e-15</v>
+        <v>1.178481033651619e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>908464579.8271672</v>
+        <v>2891.114611753112</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.178481033651619e-07</v>
+        <v>5.07326188147025e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2891.114611753112</v>
+        <v>9.618009047050869</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.07326188147025e-05</v>
+        <v>1.419137841609343</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.618009047050869</v>
+        <v>0.004693076609348488</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.419137841609343</v>
+        <v>6.885524818996061</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.004693076609348488</v>
+        <v>0.9541674637417564</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.885524818996061</v>
+        <v>0.8298333445724098</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9541674637417564</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8298333445724098</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.364449139178161</v>
       </c>
     </row>
@@ -8015,72 +7883,66 @@
         <v>1.019001041168445e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.3135728711751752</v>
+        <v>3.811818412855155e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9039919795578282</v>
+        <v>1.606971769134132e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.811818412855155e-07</v>
+        <v>-0.05063573771183964</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.606971769134132e-06</v>
+        <v>0.1171353448281265</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05063573771183964</v>
+        <v>0.0162829873598355</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1171353448281265</v>
+        <v>1.61969715558748</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0162829873598355</v>
+        <v>1.223176600848452</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.679319204529049</v>
+        <v>28.90990169353162</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.223176600848452</v>
+        <v>4.085380754687479e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>28.90990169353162</v>
+        <v>778961595.3988366</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.085380754687479e-15</v>
+        <v>1.374370317605731e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>778961595.3988366</v>
+        <v>2478.932102402889</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.374370317605731e-07</v>
+        <v>6.799874701987895e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2478.932102402889</v>
+        <v>9.167824309075158</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>6.799874701987895e-05</v>
+        <v>1.627865576502052</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.167824309075158</v>
+        <v>0.005715226862491314</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.627865576502052</v>
+        <v>6.401065850101403</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005715226862491314</v>
+        <v>0.9540076796007037</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.401065850101403</v>
+        <v>0.7617171530780016</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9540076796007037</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7617171530780016</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>5.434229491553005</v>
       </c>
     </row>
@@ -8095,72 +7957,66 @@
         <v>9.990639689689451e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3167256075453959</v>
+        <v>3.644013047665493e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9915850883154489</v>
+        <v>1.601977745734009e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.644013047665493e-07</v>
+        <v>-0.04850278586424738</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.601977745734009e-06</v>
+        <v>0.1188644856315397</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04850278586424738</v>
+        <v>0.01647986922015716</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1188644856315397</v>
+        <v>1.616722547636945</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01647986922015716</v>
+        <v>1.222174983775361</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.673929921064539</v>
+        <v>28.17982229376141</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.222174983775361</v>
+        <v>4.299810029233037e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>28.17982229376141</v>
+        <v>740105644.0718541</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.299810029233037e-15</v>
+        <v>1.446522282259384e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>740105644.0718541</v>
+        <v>2355.248309167509</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.446522282259384e-07</v>
+        <v>4.931227017470904e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2355.248309167509</v>
+        <v>9.409903037532091</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>4.931227017470904e-05</v>
+        <v>1.246921706415605</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.409903037532091</v>
+        <v>0.004366417844430996</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.246921706415605</v>
+        <v>6.66246293430056</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004366417844430996</v>
+        <v>0.9549094743160657</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.66246293430056</v>
+        <v>0.8331405873276647</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9549094743160657</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8331405873276647</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>6.133002941160395</v>
       </c>
     </row>
@@ -8175,72 +8031,66 @@
         <v>9.814099577140687e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3081482420837273</v>
+        <v>3.487009922528338e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.067140317488886</v>
+        <v>1.597254850746433e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.487009922528338e-07</v>
+        <v>-0.04698559458512767</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.597254850746433e-06</v>
+        <v>0.1202103534202249</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04698559458512767</v>
+        <v>0.01665685834421168</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1202103534202249</v>
+        <v>1.616440070408352</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01665685834421168</v>
+        <v>1.223250590212843</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.672362474040381</v>
+        <v>28.00541537111343</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.223250590212843</v>
+        <v>4.353531905587787e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>28.00541537111343</v>
+        <v>730982302.2529329</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.353531905587787e-15</v>
+        <v>1.46457983555553e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>730982302.2529329</v>
+        <v>2326.245020218443</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.46457983555553e-07</v>
+        <v>4.096965466502224e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2326.245020218443</v>
+        <v>9.920464003264673</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>4.096965466502224e-05</v>
+        <v>1.151246865329252</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.920464003264673</v>
+        <v>0.004032053393110551</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.151246865329252</v>
+        <v>6.891933977539979</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.004032053393110551</v>
+        <v>0.9533484488772777</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.891933977539979</v>
+        <v>0.8227676466793604</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9533484488772777</v>
+        <v>8</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8227676466793604</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>6.895565047195586</v>
       </c>
     </row>
@@ -8255,72 +8105,66 @@
         <v>9.662768300419686e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2885446590539307</v>
+        <v>3.341994928919735e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.132301788342968</v>
+        <v>1.592735570698406e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.341994928919735e-07</v>
+        <v>-0.04595465572482726</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.592735570698406e-06</v>
+        <v>0.1213672437141591</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04595465572482726</v>
+        <v>0.01684055405167208</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1213672437141591</v>
+        <v>1.615009530536301</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01684055405167208</v>
+        <v>1.221882723832884</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.67073532544797</v>
+        <v>27.8249985224582</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.221882723832884</v>
+        <v>4.410171400508047e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>27.8249985224582</v>
+        <v>721585912.8308802</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.410171400508047e-15</v>
+        <v>1.483649565299298e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>721585912.8308802</v>
+        <v>2296.315518402534</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.483649565299298e-07</v>
+        <v>3.788219913186435e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2296.315518402534</v>
+        <v>9.807302131165573</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>3.788219913186435e-05</v>
+        <v>1.176346565068606</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.807302131165573</v>
+        <v>0.003643630191968785</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.176346565068606</v>
+        <v>7.043466067451742</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.003643630191968785</v>
+        <v>0.9523637668472928</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>7.043466067451742</v>
+        <v>0.7608338862197612</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9523637668472928</v>
+        <v>8</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.7608338862197612</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>7.254674874233292</v>
       </c>
     </row>
@@ -8335,72 +8179,66 @@
         <v>9.538104165466598e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.2591466179351148</v>
+        <v>3.211060111959046e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.188817672044836</v>
+        <v>1.588351625109392e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.211060111959046e-07</v>
+        <v>-0.04549864506233853</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.588351625109392e-06</v>
+        <v>0.1224427777473017</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04549864506233853</v>
+        <v>0.017061050425793</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1224427777473017</v>
+        <v>1.619464949011225</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.017061050425793</v>
+        <v>1.224299218300209</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.692795124248462</v>
+        <v>27.75158170697362</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.224299218300209</v>
+        <v>4.433536484660656e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>27.75158170697362</v>
+        <v>717810865.3807108</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.433536484660656e-15</v>
+        <v>1.491470640115462e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>717810865.3807108</v>
+        <v>2284.390484716595</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.491470640115462e-07</v>
+        <v>3.827584820931375e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2284.390484716595</v>
+        <v>8.646674249643986</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>3.827584820931375e-05</v>
+        <v>1.249871962591456</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.646674249643986</v>
+        <v>0.002861692856652322</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.249871962591456</v>
+        <v>7.116670739812577</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.002861692856652322</v>
+        <v>0.9505017946287133</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.116670739812577</v>
+        <v>0.8147023021133127</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9505017946287133</v>
+        <v>8</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8147023021133127</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>7.154498515050552</v>
       </c>
     </row>
@@ -8415,72 +8253,66 @@
         <v>9.440877412003464e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.221731255876612</v>
+        <v>3.093850651686977e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.237783535244715</v>
+        <v>1.584040001140317e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.093850651686977e-07</v>
+        <v>-0.0454321988179706</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.584040001140317e-06</v>
+        <v>0.1234332470371844</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0454321988179706</v>
+        <v>0.01729877376484194</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1234332470371844</v>
+        <v>1.619721968607063</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01729877376484194</v>
+        <v>1.219075089768713</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.672934546000986</v>
+        <v>27.86624291425388</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.219075089768713</v>
+        <v>4.433688162146668e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>27.86624291425388</v>
+        <v>718441447.4208524</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.433688162146668e-15</v>
+        <v>1.490777341511977e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>718441447.4208524</v>
+        <v>2288.484117054146</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.490777341511977e-07</v>
+        <v>5.643379186098484e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2288.484117054146</v>
+        <v>8.140783594942848</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>5.643379186098484e-05</v>
+        <v>1.758520422070902</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.140783594942848</v>
+        <v>0.003740000431531668</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.758520422070902</v>
+        <v>6.710696071858053</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.003740000431531668</v>
+        <v>0.9500459634937856</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>6.710696071858053</v>
+        <v>0.8482923081498108</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9500459634937856</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.8482923081498108</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>6.152141019409584</v>
       </c>
     </row>
@@ -8495,72 +8327,66 @@
         <v>9.367470126000021e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.1782547805248375</v>
+        <v>2.987972044464497e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.27833880156382</v>
+        <v>1.579782549441825e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.987972044464497e-07</v>
+        <v>-0.04508008325436572</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.579782549441825e-06</v>
+        <v>0.124138764414564</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04508008325436572</v>
+        <v>0.01744185937727849</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.124138764414564</v>
+        <v>1.618270397855194</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01744185937727849</v>
+        <v>1.220109715959098</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.669084776193468</v>
+        <v>27.92434394844026</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.220109715959098</v>
+        <v>4.415257370923832e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>27.92434394844026</v>
+        <v>721445253.8901418</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.415257370923832e-15</v>
+        <v>1.484570342983186e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>721445253.8901418</v>
+        <v>2298.067525258113</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.484570342983186e-07</v>
+        <v>5.758089039820456e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2298.067525258113</v>
+        <v>8.79014230741587</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>5.758089039820456e-05</v>
+        <v>1.453607871724005</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.79014230741587</v>
+        <v>0.004449079728802059</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.453607871724005</v>
+        <v>6.503072632746347</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.004449079728802059</v>
+        <v>0.9492995139250971</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>6.503072632746347</v>
+        <v>0.8482771747301616</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9492995139250971</v>
+        <v>8</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8482771747301616</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>5.784394582294745</v>
       </c>
     </row>
@@ -8575,72 +8401,66 @@
         <v>9.312682866217645e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.129740829214162</v>
+        <v>2.986206614508077e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.308717489419803</v>
+        <v>1.575604209061605e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.986206614508077e-07</v>
+        <v>-0.04434227033926834</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.575604209061605e-06</v>
+        <v>0.1245383025871042</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04434227033926834</v>
+        <v>0.01747513918095651</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1245383025871042</v>
+        <v>1.617899342861407</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01747513918095651</v>
+        <v>1.219954683800083</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.668787822192253</v>
+        <v>28.0655557832192</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.219954683800083</v>
+        <v>4.370938415484296e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>28.0655557832192</v>
+        <v>728759290.5615616</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.370938415484296e-15</v>
+        <v>1.469670045902038e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>728759290.5615616</v>
+        <v>2321.36213582044</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.469670045902038e-07</v>
+        <v>4.265032198191272e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2321.36213582044</v>
+        <v>9.918036033607249</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>4.265032198191272e-05</v>
+        <v>1.129269305463464</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.918036033607249</v>
+        <v>0.004195402935817774</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.129269305463464</v>
+        <v>6.821522689264565</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004195402935817774</v>
+        <v>0.9486495118063051</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>6.821522689264565</v>
+        <v>0.8121756247134615</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9486495118063051</v>
+        <v>8</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.8121756247134615</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>6.707614075344329</v>
       </c>
     </row>
@@ -8655,72 +8475,66 @@
         <v>9.276614963383101e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.07631115535373924</v>
+        <v>2.986206614508077e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.327790185942276</v>
+        <v>1.571533062446396e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.986206614508077e-07</v>
+        <v>-0.04324653446184323</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.571533062446396e-06</v>
+        <v>0.1245478511593892</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04324653446184323</v>
+        <v>0.01738131092398644</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1245478511593892</v>
+        <v>1.617127485013916</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01738131092398644</v>
+        <v>1.219202849349863</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.666974442579663</v>
+        <v>28.29110480176279</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.219202849349863</v>
+        <v>4.30152217880282e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>28.29110480176279</v>
+        <v>740515906.1102635</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.30152217880282e-15</v>
+        <v>1.446333642934562e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>740515906.1102635</v>
+        <v>2358.799078733467</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.446333642934562e-07</v>
+        <v>3.672508962610484e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2358.799078733467</v>
+        <v>9.75138631816073</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>3.672508962610484e-05</v>
+        <v>1.150451219937365</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.75138631816073</v>
+        <v>0.003492171700007444</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.150451219937365</v>
+        <v>7.079354921946018</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.003492171700007444</v>
+        <v>0.9500364998882186</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>7.079354921946018</v>
+        <v>0.8109770435789414</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9500364998882186</v>
+        <v>13</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.8109770435789414</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>7.266255777633989</v>
       </c>
     </row>
@@ -8735,72 +8549,66 @@
         <v>9.261327618330033e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.01860667460765014</v>
+        <v>2.986206614508077e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.335825407526216</v>
+        <v>1.567585933242886e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.986206614508077e-07</v>
+        <v>-0.04190322467191823</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.567585933242886e-06</v>
+        <v>0.1241584675502383</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04190322467191823</v>
+        <v>0.01717001629459351</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1241584675502383</v>
+        <v>1.617924767585404</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01717001629459351</v>
+        <v>1.219004175831434</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.667002031444378</v>
+        <v>28.68205110660405</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.219004175831434</v>
+        <v>4.185058864403245e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>28.68205110660405</v>
+        <v>761130487.7601197</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.185058864403245e-15</v>
+        <v>1.407163598148999e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>761130487.7601197</v>
+        <v>2424.486708484137</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.407163598148999e-07</v>
+        <v>3.394796600528072e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2424.486708484137</v>
+        <v>8.885243729802143</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>3.394796600528072e-05</v>
+        <v>1.202792218313711</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.885243729802143</v>
+        <v>0.002680108951972419</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.202792218313711</v>
+        <v>7.261257300869999</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.002680108951972419</v>
+        <v>0.9493375508594823</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>7.261257300869999</v>
+        <v>0.8209773815535444</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9493375508594823</v>
+        <v>16</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.8209773815535444</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>7.466781689074213</v>
       </c>
     </row>
@@ -8815,72 +8623,66 @@
         <v>9.265985243879223e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.04209045359943643</v>
+        <v>2.986206614508077e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.334328613791876</v>
+        <v>1.563780059387637e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.986206614508077e-07</v>
+        <v>-0.04022748139574864</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.563780059387637e-06</v>
+        <v>0.1234579160434972</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04022748139574864</v>
+        <v>0.01685904605494666</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1234579160434972</v>
+        <v>1.615275889043508</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01685904605494666</v>
+        <v>1.216057721397823</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.664878202205696</v>
+        <v>29.27411114047969</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.216057721397823</v>
+        <v>4.017487617421705e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>29.27411114047969</v>
+        <v>792866203.0850453</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.017487617421705e-15</v>
+        <v>1.35083020779654e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>792866203.0850453</v>
+        <v>2525.540624113296</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.35083020779654e-07</v>
+        <v>3.705780072000408e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2525.540624113296</v>
+        <v>7.85734521113748</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>3.705780072000408e-05</v>
+        <v>1.571593016228985</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.85734521113748</v>
+        <v>0.002287869822933701</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.571593016228985</v>
+        <v>7.279773445782246</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.002287869822933701</v>
+        <v>0.949042473337481</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>7.279773445782246</v>
+        <v>0.8181090459063958</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.949042473337481</v>
+        <v>16</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8181090459063958</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>7.286778142292357</v>
       </c>
     </row>
@@ -9257,7 +9059,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.298183498396088</v>
+        <v>1.27358382349267</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.749974361880145</v>
@@ -9346,7 +9148,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.307979932287455</v>
+        <v>1.27447712120318</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.694913624081717</v>
@@ -9435,7 +9237,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.279732381495982</v>
+        <v>1.263479570473028</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.774217597033073</v>
@@ -9524,7 +9326,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.273633191462316</v>
+        <v>1.258074278573906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.777924303670324</v>
@@ -9613,7 +9415,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.276396204931099</v>
+        <v>1.258520577546226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.759965478710287</v>
@@ -9702,7 +9504,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.279225122851443</v>
+        <v>1.258082288402546</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.66956245201271</v>
@@ -9791,7 +9593,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.329311611720778</v>
+        <v>1.332512194760961</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.010035571200276</v>
@@ -9880,7 +9682,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.34014612951614</v>
+        <v>1.340909843909459</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.558179607847419</v>
@@ -9969,7 +9771,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.333696776666954</v>
+        <v>1.340422182241312</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.462763988633378</v>
@@ -10058,7 +9860,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.346309695503735</v>
+        <v>1.360952422739081</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.359861041097112</v>
@@ -10147,7 +9949,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.345443494798535</v>
+        <v>1.364495827544668</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.33823362218308</v>
@@ -10236,7 +10038,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.340523198716282</v>
+        <v>1.360905371308444</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.440790625272393</v>
@@ -10325,7 +10127,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.342553107570826</v>
+        <v>1.365616000192623</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.392997547112579</v>
@@ -10414,7 +10216,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.353905439388893</v>
+        <v>1.375010706584253</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.241560735028375</v>
@@ -10503,7 +10305,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.355430422458343</v>
+        <v>1.374383593175319</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.465461852266716</v>
@@ -10592,7 +10394,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.367128686927666</v>
+        <v>1.386363249100422</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.31571909595419</v>
@@ -10681,7 +10483,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.377226268940266</v>
+        <v>1.393603745280216</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.355187220114522</v>
@@ -10770,7 +10572,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.397315626597002</v>
+        <v>1.412600530636301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.513129531009899</v>
@@ -10859,7 +10661,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.385951501851652</v>
+        <v>1.40138708539732</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.391505196182326</v>
@@ -10948,7 +10750,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.401167707835683</v>
+        <v>1.414350859439597</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.243778069717397</v>
@@ -11037,7 +10839,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.391814079515785</v>
+        <v>1.40495347858952</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.297572807308569</v>
@@ -11126,7 +10928,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.399275488327498</v>
+        <v>1.410580931320237</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.261897646447879</v>
@@ -11215,7 +11017,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.399653970257354</v>
+        <v>1.413757137638377</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.264749407985295</v>
@@ -11304,7 +11106,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.408244960717422</v>
+        <v>1.421449726141483</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.368036325580575</v>
@@ -11393,7 +11195,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.38418953703976</v>
+        <v>1.395304128826903</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.411534286804394</v>
@@ -11482,7 +11284,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.394037874819489</v>
+        <v>1.400772645107654</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.317637919473917</v>
@@ -11571,7 +11373,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.408861182966232</v>
+        <v>1.411213961205789</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.252541781721035</v>
@@ -11660,7 +11462,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.3949711245487</v>
+        <v>1.397895306978723</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360068063125393</v>
@@ -11749,7 +11551,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.394296719437374</v>
+        <v>1.40032198387055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.365536111874657</v>
@@ -11838,7 +11640,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390464222409423</v>
+        <v>1.40195823465294</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.329684920233066</v>
@@ -11927,7 +11729,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.369011443416926</v>
+        <v>1.377378937779975</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.180320682403074</v>
@@ -12016,7 +11818,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337231145253438</v>
+        <v>1.331099755159205</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.078586894003561</v>
@@ -12105,7 +11907,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.310619649856677</v>
+        <v>1.312979382388007</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.617882906848996</v>
@@ -12194,7 +11996,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.364810217349462</v>
+        <v>1.32280922564719</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.803988825654091</v>
@@ -12283,7 +12085,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338875905423375</v>
+        <v>1.305802946603021</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.910156500500249</v>
@@ -12372,7 +12174,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.332387586766419</v>
+        <v>1.300146996872477</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.895660868754329</v>
@@ -12461,7 +12263,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.333979221223038</v>
+        <v>1.301448016462765</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.904468253373092</v>
@@ -12550,7 +12352,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.334597242356357</v>
+        <v>1.300972934084311</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.887823508945087</v>
@@ -12639,7 +12441,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.33618256490404</v>
+        <v>1.301513412488949</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.892266730570572</v>
@@ -12728,7 +12530,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.337532093428836</v>
+        <v>1.303044381385323</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.904041313476668</v>
@@ -12817,7 +12619,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33323096919028</v>
+        <v>1.299313473458545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.894537833939727</v>
@@ -12906,7 +12708,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.325014108616409</v>
+        <v>1.289589219870555</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.897908589757294</v>
@@ -12995,7 +12797,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.324324135746294</v>
+        <v>1.28882428821633</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.905984623902067</v>
@@ -13084,7 +12886,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.325620302654519</v>
+        <v>1.290996495332933</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.906712224217983</v>
@@ -13173,7 +12975,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.323148113862272</v>
+        <v>1.288004140191903</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.945066789278691</v>
@@ -13262,7 +13064,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.329799943542403</v>
+        <v>1.295984169799085</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.814894075015621</v>
@@ -13351,7 +13153,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.34124831178732</v>
+        <v>1.309502786105224</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.96866377347562</v>
@@ -13440,7 +13242,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.382908528336116</v>
+        <v>1.330703111688088</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.674546000344236</v>
@@ -13529,7 +13331,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.324370010375273</v>
+        <v>1.316564368272264</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.725551370098481</v>
@@ -13618,7 +13420,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.345229711133171</v>
+        <v>1.34981261086656</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.326424651050158</v>
@@ -13707,7 +13509,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.355411329336996</v>
+        <v>1.364569475518386</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.468179342022765</v>
@@ -13796,7 +13598,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.357912866049231</v>
+        <v>1.366008861642535</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.404869321491415</v>
@@ -13885,7 +13687,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.344004111388872</v>
+        <v>1.35919538028085</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.385314462099413</v>
@@ -13974,7 +13776,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.342735225120208</v>
+        <v>1.356632178008963</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.346875943466418</v>
@@ -14063,7 +13865,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.347543171932956</v>
+        <v>1.364504556409143</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.443965485371533</v>
@@ -14152,7 +13954,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.348195950453333</v>
+        <v>1.366124731381975</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.385877406149885</v>
@@ -14241,7 +14043,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.369630782034846</v>
+        <v>1.387135386708384</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.095660669580461</v>
@@ -14330,7 +14132,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.37058813085207</v>
+        <v>1.393223192375663</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.538344131446019</v>
@@ -14419,7 +14221,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.355056528855584</v>
+        <v>1.374769602449594</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.465127800664649</v>
@@ -14508,7 +14310,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.372758791612945</v>
+        <v>1.396657594937968</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.348816151607849</v>
@@ -14597,7 +14399,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.353585868599136</v>
+        <v>1.371934035783778</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.414837837268327</v>
@@ -14686,7 +14488,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.345699275306842</v>
+        <v>1.36299093875262</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.412597791708882</v>
@@ -14775,7 +14577,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.339900883557868</v>
+        <v>1.357085894300613</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.675978829692975</v>
@@ -14864,7 +14666,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.345349051254106</v>
+        <v>1.360960216721803</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.281143317888007</v>
@@ -14953,7 +14755,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.353624888468659</v>
+        <v>1.365523571844955</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.296062447164189</v>
@@ -15042,7 +14844,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.360801483288491</v>
+        <v>1.370798005776102</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.50310678239538</v>
@@ -15131,7 +14933,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.355496531432159</v>
+        <v>1.363273011589268</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.41415504556235</v>
@@ -15220,7 +15022,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.352428421649731</v>
+        <v>1.359520908401331</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.581383495967494</v>
@@ -15309,7 +15111,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.336947703984632</v>
+        <v>1.270073293706034</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.512746802437018</v>
@@ -15398,7 +15200,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.229513075340759</v>
+        <v>1.216751897194202</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.535305853275858</v>
@@ -15487,7 +15289,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.224374481234086</v>
+        <v>1.213480360019848</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.537087843965332</v>
@@ -15576,7 +15378,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.22594396485657</v>
+        <v>1.214562651971515</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.525828792639193</v>
@@ -15665,7 +15467,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.227704243687417</v>
+        <v>1.21422140471351</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.532988103595715</v>
@@ -15754,7 +15556,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.231299362015582</v>
+        <v>1.218408653997881</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.533336103125341</v>
@@ -15843,7 +15645,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.233536250499614</v>
+        <v>1.219651763516989</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.532167724798783</v>
@@ -15932,7 +15734,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.238115770731538</v>
+        <v>1.222564808694245</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.521187171104172</v>
@@ -16218,7 +16020,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.173398027965711</v>
+        <v>1.149537303936408</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.471810311433087</v>
@@ -16307,7 +16109,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.18344756000435</v>
+        <v>1.152163003858679</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.442908115121082</v>
@@ -16396,7 +16198,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.161245649725883</v>
+        <v>1.138368307026575</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.438629092977346</v>
@@ -16485,7 +16287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.161666777737832</v>
+        <v>1.138231091685946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.430340639202562</v>
@@ -16574,7 +16376,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.164171845564499</v>
+        <v>1.141552625811753</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.438413705567267</v>
@@ -16663,7 +16465,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.180702506486098</v>
+        <v>1.154931834153764</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.379534913777282</v>
@@ -16752,7 +16554,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393213978692769</v>
+        <v>1.341249587969322</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.523839224202913</v>
@@ -16841,7 +16643,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411185820892614</v>
+        <v>1.349580269698569</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.452550149440847</v>
@@ -16930,7 +16732,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437727807184868</v>
+        <v>1.37927424813825</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.713587216044854</v>
@@ -17019,7 +16821,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45923429169172</v>
+        <v>1.401830834373883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.853420766516855</v>
@@ -17108,7 +16910,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465263381726608</v>
+        <v>1.410182832759099</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.053610643402584</v>
@@ -17197,7 +16999,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453311569916284</v>
+        <v>1.404071045492046</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.764521190757453</v>
@@ -17286,7 +17088,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458824801752733</v>
+        <v>1.405361058667467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.660464702212811</v>
@@ -17375,7 +17177,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457061661695399</v>
+        <v>1.40145789519632</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.73549648529485</v>
@@ -17464,7 +17266,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45556132187916</v>
+        <v>1.40310657359913</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.746338967489366</v>
@@ -17553,7 +17355,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.467621303821991</v>
+        <v>1.412419844888064</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.660998937177808</v>
@@ -17642,7 +17444,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.460921175100311</v>
+        <v>1.390293949564224</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.138983711399335</v>
@@ -17731,7 +17533,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.415292569451029</v>
+        <v>1.375126815365651</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.074699905778131</v>
@@ -17820,7 +17622,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.404561887400875</v>
+        <v>1.365318288028985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.129986816054893</v>
@@ -17909,7 +17711,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.395377444853448</v>
+        <v>1.352347216241599</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.140534913920954</v>
@@ -17998,7 +17800,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.377839702278038</v>
+        <v>1.343602679786291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.086181376584471</v>
@@ -18087,7 +17889,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.37297236026452</v>
+        <v>1.341033528918549</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.141263408469713</v>
@@ -18176,7 +17978,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.366913181238764</v>
+        <v>1.338906176120882</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.066870338694852</v>
@@ -18265,7 +18067,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.365211041118844</v>
+        <v>1.339258443985253</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.081916913978341</v>
@@ -18354,7 +18156,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.354906932175864</v>
+        <v>1.329362063887056</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.101220326009923</v>
@@ -18443,7 +18245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.339336598502597</v>
+        <v>1.310812021274119</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.141877480806291</v>
@@ -18532,7 +18334,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.356560021691024</v>
+        <v>1.321252098052997</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.093166221610249</v>
@@ -18621,7 +18423,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.35657441117572</v>
+        <v>1.322974239430698</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.073212486925986</v>
@@ -18710,7 +18512,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.351326735367329</v>
+        <v>1.31850977043083</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.059834400617778</v>
@@ -18799,7 +18601,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.33110503866446</v>
+        <v>1.302418661500427</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.123762750805921</v>
@@ -18888,7 +18690,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.284162275714334</v>
+        <v>1.261362033379736</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.046712717606959</v>
@@ -18977,7 +18779,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.275176249282315</v>
+        <v>1.247747193960882</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.91477655525758</v>
@@ -19066,7 +18868,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.219467623121163</v>
+        <v>1.203478135374075</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.526088136296917</v>
@@ -19155,7 +18957,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.298944167121533</v>
+        <v>1.251143053143416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.714347261622814</v>
@@ -19244,7 +19046,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.28655114493769</v>
+        <v>1.249102001114624</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.783943867299856</v>
@@ -19333,7 +19135,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.282034033258066</v>
+        <v>1.24559346064594</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.805746064862567</v>
@@ -19422,7 +19224,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.282094242502918</v>
+        <v>1.24640598455315</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.792606112739587</v>
@@ -19511,7 +19313,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.28162791277932</v>
+        <v>1.244534447447279</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.806767379585929</v>
@@ -19600,7 +19402,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282308677821115</v>
+        <v>1.244777254834839</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.800369968564832</v>
@@ -19689,7 +19491,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.284331289674211</v>
+        <v>1.246143785880746</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.819923218089039</v>
@@ -19778,7 +19580,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.2851877660683</v>
+        <v>1.246989328520608</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.804522829229476</v>
@@ -19867,7 +19669,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.283448793424263</v>
+        <v>1.245749741186827</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.804110117344102</v>
@@ -19956,7 +19758,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.2850727278809</v>
+        <v>1.246563122027641</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.809845282308322</v>
@@ -20045,7 +19847,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.284675583456981</v>
+        <v>1.246789979329581</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.808448388663442</v>
@@ -20134,7 +19936,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.287465105909626</v>
+        <v>1.248698970414902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.845473722659757</v>
@@ -20223,7 +20025,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.296563057695038</v>
+        <v>1.257091688037926</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.812350879992224</v>
@@ -20312,7 +20114,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.309060239406986</v>
+        <v>1.267519326811835</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.835733084435218</v>
@@ -20401,7 +20203,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.39177936372135</v>
+        <v>1.319647262715982</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.622220121869206</v>
@@ -20490,7 +20292,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.326059550454096</v>
+        <v>1.290579570881851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.644050121083233</v>
@@ -20579,7 +20381,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37796973882423</v>
+        <v>1.336178191996279</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.263434738877585</v>
@@ -20668,7 +20470,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.417849052118945</v>
+        <v>1.366578913144182</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.635850302453218</v>
@@ -20757,7 +20559,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.400673241604729</v>
+        <v>1.3560606593799</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.515865316163661</v>
@@ -20846,7 +20648,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.404754567280886</v>
+        <v>1.367729019354132</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.857559352796816</v>
@@ -20935,7 +20737,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.402340368377377</v>
+        <v>1.363657619994173</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.642291962885694</v>
@@ -21024,7 +20826,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.399830754186957</v>
+        <v>1.356676386484781</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.834396158634423</v>
@@ -21113,7 +20915,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.410077860596378</v>
+        <v>1.365768526812471</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.540330591839875</v>
@@ -21202,7 +21004,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.41790102685495</v>
+        <v>1.370574353971923</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.636498165556507</v>
@@ -21291,7 +21093,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.408727171015984</v>
+        <v>1.365303511528781</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.54586649582233</v>
@@ -21380,7 +21182,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.396959189177637</v>
+        <v>1.348734620664849</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.177833442783914</v>
@@ -21469,7 +21271,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.385196047058867</v>
+        <v>1.341907418279309</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.303416518593814</v>
@@ -21558,7 +21360,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.390771544922518</v>
+        <v>1.343333617982337</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.330250662585093</v>
@@ -21647,7 +21449,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.392260424152328</v>
+        <v>1.344120817756272</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.370824338833238</v>
@@ -21736,7 +21538,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.389765721065674</v>
+        <v>1.341057208573109</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.244300260847333</v>
@@ -21825,7 +21627,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.389187652039608</v>
+        <v>1.343470455315606</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.221894587737103</v>
@@ -21914,7 +21716,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.382012123133304</v>
+        <v>1.337434324169345</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.289697748685244</v>
@@ -22003,7 +21805,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.375534848890288</v>
+        <v>1.325657558755298</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.294339704539683</v>
@@ -22092,7 +21894,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.388655123305568</v>
+        <v>1.33374441315093</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.306813952670826</v>
@@ -22181,7 +21983,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.360739938462894</v>
+        <v>1.310578840652175</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.311976988661887</v>
@@ -22270,7 +22072,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.316812586258206</v>
+        <v>1.200942799696932</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.346290487557698</v>
@@ -22359,7 +22161,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.167489223001426</v>
+        <v>1.133842894652451</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.379904060242996</v>
@@ -22448,7 +22250,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.156344591950534</v>
+        <v>1.126155159731661</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.380071486478312</v>
@@ -22537,7 +22339,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.154696219727614</v>
+        <v>1.125309974332392</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.381417647346299</v>
@@ -22626,7 +22428,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.156198742233606</v>
+        <v>1.125614933286736</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.38117055046467</v>
@@ -22715,7 +22517,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.158665750203783</v>
+        <v>1.127985623623924</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.380035270970659</v>
@@ -22804,7 +22606,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.160224430273726</v>
+        <v>1.128283259632905</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.37746756504143</v>
@@ -22893,7 +22695,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.158753795157524</v>
+        <v>1.126744208860595</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.378406144545646</v>
@@ -23179,7 +22981,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.221873116371577</v>
+        <v>1.207713202814138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.600639397913508</v>
@@ -23268,7 +23070,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.227459547799152</v>
+        <v>1.20834059878543</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.594568466081508</v>
@@ -23357,7 +23159,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.215533558588519</v>
+        <v>1.202265127347463</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.583941084961341</v>
@@ -23446,7 +23248,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.215085476810113</v>
+        <v>1.201675877357801</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.584673722458616</v>
@@ -23535,7 +23337,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.216820750971421</v>
+        <v>1.202486757848326</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.57575342311044</v>
@@ -23624,7 +23426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.230306115656203</v>
+        <v>1.214099037808908</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.515600283293337</v>
@@ -23713,7 +23515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.324913535529003</v>
+        <v>1.293933169067554</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.548844112796201</v>
@@ -23802,7 +23604,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.433728819692906</v>
+        <v>1.381805098751748</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.209849727624746</v>
@@ -23891,7 +23693,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.45533751125564</v>
+        <v>1.409498260902174</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.245514294029956</v>
@@ -23980,7 +23782,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492599364086888</v>
+        <v>1.452562554268579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.34027372882744</v>
@@ -24069,7 +23871,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.517350004671523</v>
+        <v>1.483241050644122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.780496939988848</v>
@@ -24158,7 +23960,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.529072515716634</v>
+        <v>1.497765215801635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.731773560723482</v>
@@ -24247,7 +24049,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552926900639888</v>
+        <v>1.517783684518911</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.870833095974079</v>
@@ -24336,7 +24138,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547493607569222</v>
+        <v>1.509042493263386</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.838055516395195</v>
@@ -24425,7 +24227,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.563133522093029</v>
+        <v>1.521829156341512</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.269741892704165</v>
@@ -24514,7 +24316,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.578055518920555</v>
+        <v>1.532067582751796</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.141718904519257</v>
@@ -24603,7 +24405,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574145896126186</v>
+        <v>1.52722845612201</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.036137997759383</v>
@@ -24692,7 +24494,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.567310806787953</v>
+        <v>1.525802116731093</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.161620970001268</v>
@@ -24781,7 +24583,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567211229285257</v>
+        <v>1.52556082882434</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.235871162559712</v>
@@ -24870,7 +24672,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571066686613411</v>
+        <v>1.523173443333387</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.948291202920748</v>
@@ -24959,7 +24761,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570826518356117</v>
+        <v>1.524274424532004</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.893375384696996</v>
@@ -25048,7 +24850,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576903708263248</v>
+        <v>1.529722644946278</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.839048880619002</v>
@@ -25137,7 +24939,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.583393861069683</v>
+        <v>1.542917220439735</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.103823734663061</v>
@@ -25226,7 +25028,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583835031246099</v>
+        <v>1.539030595437658</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.694200216170784</v>
@@ -25315,7 +25117,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580957312644776</v>
+        <v>1.536808598455158</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.024680157485988</v>
@@ -25404,7 +25206,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567386915477895</v>
+        <v>1.516964841036581</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.768117037968204</v>
@@ -25493,7 +25295,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566866633585861</v>
+        <v>1.511373781931729</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.800655864077493</v>
@@ -25582,7 +25384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557678741683845</v>
+        <v>1.50693113443983</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.132974328819978</v>
@@ -25671,7 +25473,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54794867670491</v>
+        <v>1.500508779724608</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.091712818531</v>
@@ -25760,7 +25562,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.555300647750141</v>
+        <v>1.500187479469554</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.339160403501879</v>
@@ -25849,7 +25651,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.382872641442234</v>
+        <v>1.354775850110901</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.678544214361027</v>
@@ -25938,7 +25740,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.311589315644816</v>
+        <v>1.286904060541223</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.701684390612717</v>
@@ -26027,7 +25829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.295752813014551</v>
+        <v>1.283086793035079</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.60612921422429</v>
@@ -26116,7 +25918,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.347259272512975</v>
+        <v>1.29416928976353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.792654376980192</v>
@@ -26205,7 +26007,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.323828886876576</v>
+        <v>1.281723922333182</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.888532535497847</v>
@@ -26294,7 +26096,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.318017835622029</v>
+        <v>1.277442900908217</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.905184718558671</v>
@@ -26383,7 +26185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.315324567780809</v>
+        <v>1.27551035174587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.901171446435741</v>
@@ -26472,7 +26274,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.313548356060754</v>
+        <v>1.272270331358786</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.904474572867038</v>
@@ -26561,7 +26363,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.313774886423927</v>
+        <v>1.272537155595767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.891894971329189</v>
@@ -26650,7 +26452,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.313229807937779</v>
+        <v>1.272157285475747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.912484217471815</v>
@@ -26739,7 +26541,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.31447022252391</v>
+        <v>1.27266502431964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.907711270080216</v>
@@ -26828,7 +26630,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.315041749851372</v>
+        <v>1.273689550388949</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.904151821986762</v>
@@ -26917,7 +26719,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.315475775877565</v>
+        <v>1.272687740694937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.908874985450521</v>
@@ -27006,7 +26808,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.316730561462623</v>
+        <v>1.274478587411705</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.913919307014504</v>
@@ -27095,7 +26897,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.316483791725684</v>
+        <v>1.273732498416425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.961818639544811</v>
@@ -27184,7 +26986,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.339452939011621</v>
+        <v>1.294171345692456</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.888440334534808</v>
@@ -27273,7 +27075,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.364609669043614</v>
+        <v>1.315069110511515</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.877564992596132</v>
@@ -27362,7 +27164,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.413164415868229</v>
+        <v>1.338221695558686</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.604918208336676</v>
@@ -27451,7 +27253,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.363904959341598</v>
+        <v>1.333789537931485</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.622768624114418</v>
@@ -27540,7 +27342,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.477132104217784</v>
+        <v>1.440452394273962</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.046898222934173</v>
@@ -27629,7 +27431,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516201132568653</v>
+        <v>1.470627385543404</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.010778483682909</v>
@@ -27718,7 +27520,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.528784931789802</v>
+        <v>1.486556972515142</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.66934400402194</v>
@@ -27807,7 +27609,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.536382280543429</v>
+        <v>1.503755349622738</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.756076300643425</v>
@@ -27896,7 +27698,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.539418164597567</v>
+        <v>1.50493139785941</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.767325473438991</v>
@@ -27985,7 +27787,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.541688748203726</v>
+        <v>1.504143983434014</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.897356341398512</v>
@@ -28074,7 +27876,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.533425024322106</v>
+        <v>1.500793141744911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.18350633344551</v>
@@ -28163,7 +27965,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545016059391078</v>
+        <v>1.509366646329108</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.679665020491592</v>
@@ -28252,7 +28054,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546946453444536</v>
+        <v>1.521915257052612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.150414797400287</v>
@@ -28341,7 +28143,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.547347220243034</v>
+        <v>1.519513492066917</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.887888032092</v>
@@ -28430,7 +28232,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572860312739956</v>
+        <v>1.542353377685888</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.711221584314094</v>
@@ -28519,7 +28321,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.581101928254682</v>
+        <v>1.539246842523729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.277235353608517</v>
@@ -28608,7 +28410,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.590772674714565</v>
+        <v>1.549305104887702</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.011355610231885</v>
@@ -28697,7 +28499,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.587004515744707</v>
+        <v>1.544436931991359</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.957812125571107</v>
@@ -28786,7 +28588,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.588807293395286</v>
+        <v>1.551881422387746</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.975467521950133</v>
@@ -28875,7 +28677,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.595935462793063</v>
+        <v>1.556163873533822</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.934936034501836</v>
@@ -28964,7 +28766,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.587985945696984</v>
+        <v>1.550517728798087</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.094260277856693</v>
@@ -29053,7 +28855,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.582411966101076</v>
+        <v>1.536209755185242</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.075077824430122</v>
@@ -29142,7 +28944,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.56704347995156</v>
+        <v>1.527544369931334</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.874246763727603</v>
@@ -29231,7 +29033,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.62559833065675</v>
+        <v>1.497709577608153</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.512923587695882</v>
@@ -29320,7 +29122,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.354110632240643</v>
+        <v>1.277447595965415</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.519320796698681</v>
@@ -29409,7 +29211,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.321670881453058</v>
+        <v>1.250790647717352</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.526938380821523</v>
@@ -29498,7 +29300,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.31707421117222</v>
+        <v>1.247322620493974</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.528366232422617</v>
@@ -29587,7 +29389,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.318804322972887</v>
+        <v>1.245914561336015</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.531677632603591</v>
@@ -29676,7 +29478,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.318967963614297</v>
+        <v>1.245900280935136</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.53383926951145</v>
@@ -29765,7 +29567,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.316666960933413</v>
+        <v>1.242989217247871</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.528552549505272</v>
@@ -29854,7 +29656,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.316406523947553</v>
+        <v>1.244027433509195</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.53254447122919</v>
@@ -30140,7 +29942,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.332891491665716</v>
+        <v>1.30233357521935</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.535062117338313</v>
@@ -30229,7 +30031,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.361911203597599</v>
+        <v>1.309356791994311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.488617324252659</v>
@@ -30318,7 +30120,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.292575549086661</v>
+        <v>1.264631945239798</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.472609728773041</v>
@@ -30407,7 +30209,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290258020119728</v>
+        <v>1.263204544459263</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.478214605344614</v>
@@ -30496,7 +30298,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.295077346175179</v>
+        <v>1.266450562819639</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.466168372149737</v>
@@ -30585,7 +30387,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.318795830286102</v>
+        <v>1.286793174100183</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.512107197953142</v>
@@ -30674,7 +30476,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.608632758153553</v>
+        <v>1.571697852931734</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.214119393457547</v>
@@ -30763,7 +30565,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638874193962511</v>
+        <v>1.584268820552442</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.93818921487199</v>
@@ -30852,7 +30654,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649888710353844</v>
+        <v>1.596081389338994</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.19671314821381</v>
@@ -30941,7 +30743,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.658857299269193</v>
+        <v>1.60362969276263</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.096737843027869</v>
@@ -31030,7 +30832,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662337704863093</v>
+        <v>1.608767685697309</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.309450420470848</v>
@@ -31119,7 +30921,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652967857163363</v>
+        <v>1.60266093406761</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.215625162642587</v>
@@ -31208,7 +31010,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.645630589251237</v>
+        <v>1.590564840987087</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.202806094392283</v>
@@ -31297,7 +31099,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.649386018239357</v>
+        <v>1.58875710707399</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.982000218505537</v>
@@ -31386,7 +31188,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656305727800879</v>
+        <v>1.592301083749268</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.282638510911828</v>
@@ -31475,7 +31277,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.643636742570164</v>
+        <v>1.58453575867463</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.345536488777995</v>
@@ -31564,7 +31366,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.647548919038195</v>
+        <v>1.57736873995601</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.606761996856814</v>
@@ -31653,7 +31455,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615191432368277</v>
+        <v>1.563178174224344</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.792865920462459</v>
@@ -31742,7 +31544,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610982209648106</v>
+        <v>1.558633462486981</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.774333442169813</v>
@@ -31831,7 +31633,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595176386769834</v>
+        <v>1.546431363164489</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.629442792103685</v>
@@ -31920,7 +31722,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573183992571734</v>
+        <v>1.53061701062285</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.753101168851369</v>
@@ -32009,7 +31811,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568554158167139</v>
+        <v>1.53270890302398</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.559492029782339</v>
@@ -32098,7 +31900,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.562988538456788</v>
+        <v>1.533195595988071</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.712519870554935</v>
@@ -32187,7 +31989,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563620634210512</v>
+        <v>1.538903280853635</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.680954140096395</v>
@@ -32276,7 +32078,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568888891429564</v>
+        <v>1.54264086329412</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.727749867094769</v>
@@ -32365,7 +32167,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.565649560526577</v>
+        <v>1.539465729397106</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.728513660550846</v>
@@ -32454,7 +32256,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.576955072728845</v>
+        <v>1.540760844806711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.730516588037257</v>
@@ -32543,7 +32345,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.57828335640241</v>
+        <v>1.548361848031625</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.769326317980353</v>
@@ -32632,7 +32434,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57309229058472</v>
+        <v>1.550508322595587</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.776152997091774</v>
@@ -32721,7 +32523,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560251803319904</v>
+        <v>1.541605793266513</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.675314551991595</v>
@@ -32810,7 +32612,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456692051377199</v>
+        <v>1.447820271170981</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.053212007257909</v>
@@ -32899,7 +32701,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448968273522533</v>
+        <v>1.421878212417726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.966713533181685</v>
@@ -32988,7 +32790,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.37592219316141</v>
+        <v>1.368550448666239</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.400682460490823</v>
@@ -33077,7 +32879,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41543502822833</v>
+        <v>1.348684202591006</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.606952480517538</v>
@@ -33166,7 +32968,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.385203565180967</v>
+        <v>1.334595259642361</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.670304924345674</v>
@@ -33255,7 +33057,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.380413266219759</v>
+        <v>1.330395463310562</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.674651639631873</v>
@@ -33344,7 +33146,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.376797906380546</v>
+        <v>1.327771272191222</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.671367950561802</v>
@@ -33433,7 +33235,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.375656499045913</v>
+        <v>1.325932878092148</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.676674619163204</v>
@@ -33522,7 +33324,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.375863997721633</v>
+        <v>1.326178631201713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.675990069554186</v>
@@ -33611,7 +33413,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.376024502255231</v>
+        <v>1.3269585371308</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.677942378993679</v>
@@ -33700,7 +33502,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.375815409635977</v>
+        <v>1.326618361334676</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.676853460123142</v>
@@ -33789,7 +33591,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.375286191015177</v>
+        <v>1.326898365066626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.67364319102464</v>
@@ -33878,7 +33680,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.375809047270606</v>
+        <v>1.32742208225072</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.680415548742691</v>
@@ -33967,7 +33769,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.377403204237958</v>
+        <v>1.329325935970906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.682190574116435</v>
@@ -34056,7 +33858,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.378155945469674</v>
+        <v>1.329603273596285</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.694876140230489</v>
@@ -34145,7 +33947,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.390638029096297</v>
+        <v>1.340604780406977</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.67326842867773</v>
@@ -34234,7 +34036,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.395378640936416</v>
+        <v>1.345915287971782</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.699736872247557</v>
@@ -34323,7 +34125,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.436546004303311</v>
+        <v>1.363117302774843</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.636191568247351</v>
@@ -34412,7 +34214,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.405870626432439</v>
+        <v>1.390971313965654</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.613220412153757</v>
@@ -34501,7 +34303,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.506130515240116</v>
+        <v>1.483226249089822</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.015007526330882</v>
@@ -34590,7 +34392,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.560646779850822</v>
+        <v>1.524982814579946</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.476110508713584</v>
@@ -34679,7 +34481,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.563387435346929</v>
+        <v>1.527484440560597</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.449848469233957</v>
@@ -34768,7 +34570,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561767140106296</v>
+        <v>1.532738265880082</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.846492365593225</v>
@@ -34857,7 +34659,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.556228406025753</v>
+        <v>1.52631647261067</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.735005437626781</v>
@@ -34946,7 +34748,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.548071211918984</v>
+        <v>1.508050836642703</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.817443975565106</v>
@@ -35035,7 +34837,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.548025031815464</v>
+        <v>1.503477052289517</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.899534189871305</v>
@@ -35124,7 +34926,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.550690558959739</v>
+        <v>1.501343492458809</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.53008103678639</v>
@@ -35213,7 +35015,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.548248693263967</v>
+        <v>1.500951127002842</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.854567251727552</v>
@@ -35302,7 +35104,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.531235931442326</v>
+        <v>1.479084560939725</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.686231102583228</v>
@@ -35391,7 +35193,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.554530838971542</v>
+        <v>1.505360124144072</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.63698495118481</v>
@@ -35480,7 +35282,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553009254005757</v>
+        <v>1.500913645443266</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.665373146269553</v>
@@ -35569,7 +35371,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.554377341791803</v>
+        <v>1.502044877470112</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.844485549232905</v>
@@ -35658,7 +35460,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559664240115093</v>
+        <v>1.51086665351715</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.792360359698028</v>
@@ -35747,7 +35549,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.569659015033586</v>
+        <v>1.522064274317813</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.820745096321577</v>
@@ -35836,7 +35638,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.581321813986599</v>
+        <v>1.532741740612307</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.699019499180063</v>
@@ -35925,7 +35727,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.581371999636491</v>
+        <v>1.530135594052156</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.851470073143391</v>
@@ -36014,7 +35816,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581094292003677</v>
+        <v>1.527623322794611</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.862752896808432</v>
@@ -36103,7 +35905,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.557714447378357</v>
+        <v>1.506875229805777</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.800395412802813</v>
@@ -36192,7 +35994,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.482506513723828</v>
+        <v>1.397272117844145</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.449819720298154</v>
@@ -36281,7 +36083,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.325095204866097</v>
+        <v>1.297513288015293</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.481368867213574</v>
@@ -36370,7 +36172,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.300610753001256</v>
+        <v>1.283025961694521</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.483994311684949</v>
@@ -36459,7 +36261,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.298297511882959</v>
+        <v>1.281049325722667</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.47998507590695</v>
@@ -36548,7 +36350,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.299981912038237</v>
+        <v>1.279013733916052</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.479699148890828</v>
@@ -36637,7 +36439,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.299667328728581</v>
+        <v>1.280089432884823</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.481771801549015</v>
@@ -36726,7 +36528,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.292263921724837</v>
+        <v>1.270337644414381</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.476309339474987</v>
@@ -36815,7 +36617,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.289537597345144</v>
+        <v>1.266864494995117</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.472676609731127</v>
@@ -37101,7 +36903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.326011856053555</v>
+        <v>1.284234988974795</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.451913649196495</v>
@@ -37190,7 +36992,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.366776949961283</v>
+        <v>1.2944004014277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.408997673431648</v>
@@ -37279,7 +37081,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.291861714140202</v>
+        <v>1.256023074285409</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.484729514842913</v>
@@ -37368,7 +37170,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290125883444466</v>
+        <v>1.254889542692008</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.487524546517328</v>
@@ -37457,7 +37259,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.293962100319637</v>
+        <v>1.256507752627059</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.478381552511652</v>
@@ -37546,7 +37348,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.312744682145484</v>
+        <v>1.270142578716478</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.513717926209111</v>
@@ -37635,7 +37437,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532150787835726</v>
+        <v>1.476575773616693</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.030049913101047</v>
@@ -37724,7 +37526,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.572377193530892</v>
+        <v>1.492811158965762</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.180347043739975</v>
@@ -37813,7 +37615,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584762923688813</v>
+        <v>1.501309150202656</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.057880542403701</v>
@@ -37902,7 +37704,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601655997616049</v>
+        <v>1.519040843430781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.32685672078542</v>
@@ -37991,7 +37793,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61457850338457</v>
+        <v>1.531863153173461</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.369379719917962</v>
@@ -38080,7 +37882,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60596993508832</v>
+        <v>1.528745296289618</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.177242477192941</v>
@@ -38169,7 +37971,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603760653729378</v>
+        <v>1.527264390631125</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.441923690857039</v>
@@ -38258,7 +38060,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588840622910488</v>
+        <v>1.51279272665338</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.081456797038246</v>
@@ -38347,7 +38149,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592505428041272</v>
+        <v>1.512363583307323</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.445396205441706</v>
@@ -38436,7 +38238,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.593828937188154</v>
+        <v>1.512148783120454</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.064663472435186</v>
@@ -38525,7 +38327,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5846857382341</v>
+        <v>1.499540859856103</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.568072239371142</v>
@@ -38614,7 +38416,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559990837210851</v>
+        <v>1.495234900465734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.638282061151535</v>
@@ -38703,7 +38505,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556221203853372</v>
+        <v>1.490733114117022</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.669545495911811</v>
@@ -38792,7 +38594,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542923245011258</v>
+        <v>1.483604948289261</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.660526206454624</v>
@@ -38881,7 +38683,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518545625121974</v>
+        <v>1.471285822509442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.594017852338424</v>
@@ -38970,7 +38772,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.504249166263095</v>
+        <v>1.46991181221941</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.623320005868373</v>
@@ -39059,7 +38861,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.501816902122836</v>
+        <v>1.479057806434895</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.616045823414569</v>
@@ -39148,7 +38950,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.502354245287511</v>
+        <v>1.474846858174552</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.531402691172755</v>
@@ -39237,7 +39039,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494532029183559</v>
+        <v>1.470065189588978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.622917180341713</v>
@@ -39326,7 +39128,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.484498752052305</v>
+        <v>1.456904132497701</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.673742352905998</v>
@@ -39415,7 +39217,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.491898974233496</v>
+        <v>1.452600881056762</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685128571883041</v>
@@ -39504,7 +39306,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.491056389209338</v>
+        <v>1.457634176584961</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.608896745948317</v>
@@ -39593,7 +39395,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.493310056469503</v>
+        <v>1.460490601899949</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.585182057774127</v>
@@ -39682,7 +39484,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.471467549538203</v>
+        <v>1.445042034273753</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.01860133164707</v>
@@ -39771,7 +39573,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.318728886160702</v>
+        <v>1.303887295253219</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.720451074429833</v>
@@ -39860,7 +39662,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.312322491177371</v>
+        <v>1.285624940582539</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.701501211138084</v>
@@ -39949,7 +39751,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.253140902582172</v>
+        <v>1.238544739954135</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.392272045917548</v>
@@ -40038,7 +39840,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.359130844438906</v>
+        <v>1.278948541188542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.648965596075093</v>
@@ -40127,7 +39929,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337881055265969</v>
+        <v>1.27566139316292</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.728406956270197</v>
@@ -40216,7 +40018,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.332806646999793</v>
+        <v>1.271785301291883</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.735849510308249</v>
@@ -40305,7 +40107,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.331099146859047</v>
+        <v>1.270994522543305</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.732997470095875</v>
@@ -40394,7 +40196,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.329939229060272</v>
+        <v>1.269541247965684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.735529276953094</v>
@@ -40483,7 +40285,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.330307881044086</v>
+        <v>1.270028188279771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.733255406076406</v>
@@ -40572,7 +40374,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.33140746309325</v>
+        <v>1.270871538808019</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.73717520084051</v>
@@ -40661,7 +40463,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33157011332926</v>
+        <v>1.270847983973553</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.736778588848358</v>
@@ -40750,7 +40552,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.330401675712111</v>
+        <v>1.270196192854862</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.734137767020501</v>
@@ -40839,7 +40641,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.330018668977117</v>
+        <v>1.269483723315225</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.739522965942239</v>
@@ -40928,7 +40730,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.330475464367944</v>
+        <v>1.269649753963565</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.738387391906638</v>
@@ -41017,7 +40819,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.332212738607187</v>
+        <v>1.270704450773794</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.765270448331679</v>
@@ -41106,7 +40908,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.346411736583287</v>
+        <v>1.282152437450372</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.730313534986518</v>
@@ -41195,7 +40997,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.349896221528115</v>
+        <v>1.284957274861965</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.750550422412424</v>
@@ -41284,7 +41086,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.405552531746173</v>
+        <v>1.31688644901</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.580336514500423</v>
@@ -41373,7 +41175,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.34186955439474</v>
+        <v>1.316054127197789</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.532057800076711</v>
@@ -41462,7 +41264,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.401629874824435</v>
+        <v>1.368878866347538</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.857868517235914</v>
@@ -41551,7 +41353,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.462054762106848</v>
+        <v>1.416720752884827</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.227883941480937</v>
@@ -41640,7 +41442,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.469888177921386</v>
+        <v>1.422436122394901</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.265993856182124</v>
@@ -41729,7 +41531,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.468208630318747</v>
+        <v>1.425682448254125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.658978155147337</v>
@@ -41818,7 +41620,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.460986899272712</v>
+        <v>1.416466539063652</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.514357860022561</v>
@@ -41907,7 +41709,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.456514639312127</v>
+        <v>1.407003877891448</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.539120425093945</v>
@@ -41996,7 +41798,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.460568555208814</v>
+        <v>1.410586366506248</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.666422888637824</v>
@@ -42085,7 +41887,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.468353947593433</v>
+        <v>1.415545989231427</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.356640288831408</v>
@@ -42174,7 +41976,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.472073452895033</v>
+        <v>1.421527211752192</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.722276229596398</v>
@@ -42263,7 +42065,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.466006802545266</v>
+        <v>1.408739957089195</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.574320694518177</v>
@@ -42352,7 +42154,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.490111335480996</v>
+        <v>1.433639863719543</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.557007706778001</v>
@@ -42441,7 +42243,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.504223259496177</v>
+        <v>1.440732386978998</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.624608130649968</v>
@@ -42530,7 +42332,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.509880284017602</v>
+        <v>1.448256061358596</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.722370927676014</v>
@@ -42619,7 +42421,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.509550357148963</v>
+        <v>1.447228154674189</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.578950562380195</v>
@@ -42708,7 +42510,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.511636442923934</v>
+        <v>1.451660413643055</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.620371168948009</v>
@@ -42797,7 +42599,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.530113210545024</v>
+        <v>1.465908350232574</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.548168942025017</v>
@@ -42886,7 +42688,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.518093796318423</v>
+        <v>1.452971132510669</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.704913236309809</v>
@@ -42975,7 +42777,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.516187659799885</v>
+        <v>1.45130433422168</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.866568182040046</v>
@@ -43064,7 +42866,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.488086793248835</v>
+        <v>1.432325672917459</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.658149955149164</v>
@@ -43153,7 +42955,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.445257191400611</v>
+        <v>1.342789272762954</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.465230676496756</v>
@@ -43242,7 +43044,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.299891092801244</v>
+        <v>1.265092204395851</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.501621402945257</v>
@@ -43331,7 +43133,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.273739165483501</v>
+        <v>1.243861560075387</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.501995289804779</v>
@@ -43420,7 +43222,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.273504627122992</v>
+        <v>1.242740022866271</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.506518018278399</v>
@@ -43509,7 +43311,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.272657514469056</v>
+        <v>1.239738870277415</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.500359382077718</v>
@@ -43598,7 +43400,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.270431949494424</v>
+        <v>1.240015739180798</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.503660502231718</v>
@@ -43687,7 +43489,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.265579620060695</v>
+        <v>1.232829608628182</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.497157419586465</v>
@@ -43776,7 +43578,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.26542128961045</v>
+        <v>1.233169010804017</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.499715963931858</v>
@@ -44062,7 +43864,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.266177602796492</v>
+        <v>1.262991481352298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.616814691315677</v>
@@ -44151,7 +43953,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.264147063531787</v>
+        <v>1.25781073442962</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.620470299832821</v>
@@ -44240,7 +44042,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.258135803907822</v>
+        <v>1.260854542950307</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.594789116089689</v>
@@ -44329,7 +44131,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.26271531316418</v>
+        <v>1.264536259230117</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.600009146399957</v>
@@ -44418,7 +44220,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.265408151932615</v>
+        <v>1.266890603099436</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.57729495745279</v>
@@ -44507,7 +44309,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.274253808002677</v>
+        <v>1.272103802438734</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.626734820704536</v>
@@ -44596,7 +44398,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.361675503663554</v>
+        <v>1.364073060263378</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.012976218161544</v>
@@ -44685,7 +44487,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.371543239134894</v>
+        <v>1.371769469335254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.512335919209299</v>
@@ -44774,7 +44576,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.364641218536763</v>
+        <v>1.377108466121098</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.562772828262136</v>
@@ -44863,7 +44665,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.39518246613658</v>
+        <v>1.410507020835437</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355387302392075</v>
@@ -44952,7 +44754,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396402595990097</v>
+        <v>1.40893717266363</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.241548931787625</v>
@@ -45041,7 +44843,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.385776780106932</v>
+        <v>1.397028258943979</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.215162662343082</v>
@@ -45130,7 +44932,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.384022692651296</v>
+        <v>1.397764526994992</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.275394492291277</v>
@@ -45219,7 +45021,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.384086427645657</v>
+        <v>1.395836893190118</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.25454798107893</v>
@@ -45308,7 +45110,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.389000755021242</v>
+        <v>1.399024539474497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.28853650016356</v>
@@ -45397,7 +45199,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.394558639925733</v>
+        <v>1.402616729318015</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.328825441365002</v>
@@ -45486,7 +45288,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.397324985902661</v>
+        <v>1.40044377111969</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.335346885295349</v>
@@ -45575,7 +45377,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.403592662607857</v>
+        <v>1.414824320906809</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.358419196476526</v>
@@ -45664,7 +45466,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.380578879522776</v>
+        <v>1.390444671694711</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.289124949922145</v>
@@ -45753,7 +45555,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.374879115915498</v>
+        <v>1.387386012664624</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.19538726975347</v>
@@ -45842,7 +45644,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.358058450038046</v>
+        <v>1.371903871689288</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.259320231420139</v>
@@ -45931,7 +45733,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.358367677040145</v>
+        <v>1.371781119231044</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.368974089708374</v>
@@ -46020,7 +45822,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.375402588201759</v>
+        <v>1.389053277868644</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.127539688903862</v>
@@ -46109,7 +45911,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.388707547905924</v>
+        <v>1.403887112132044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.324640589990842</v>
@@ -46198,7 +46000,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.373683654756031</v>
+        <v>1.388487120131497</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.256393355294402</v>
@@ -46287,7 +46089,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.378645761487207</v>
+        <v>1.392369149339252</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.102387455293312</v>
@@ -46376,7 +46178,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403380805399871</v>
+        <v>1.413957621090964</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.088506201694145</v>
@@ -46465,7 +46267,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.393684309937181</v>
+        <v>1.406713944714963</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.204874582708929</v>
@@ -46554,7 +46356,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.41115120112644</v>
+        <v>1.424364144851233</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.217163860054103</v>
@@ -46643,7 +46445,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.414536632553459</v>
+        <v>1.428823209124481</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.216907332571547</v>
@@ -46732,7 +46534,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.405657857292275</v>
+        <v>1.418675348712594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.269909552008916</v>
@@ -46821,7 +46623,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.393405883936513</v>
+        <v>1.39904508591899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.216783518191444</v>
@@ -46910,7 +46712,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432408776065324</v>
+        <v>1.454121624276266</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.920127770447752</v>
@@ -46999,7 +46801,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.480337784171188</v>
+        <v>1.478989654736816</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.977174628880207</v>
@@ -47088,7 +46890,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.444304041008289</v>
+        <v>1.443992037898536</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.033998056243144</v>
@@ -47177,7 +46979,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.437832838377416</v>
+        <v>1.436981206103413</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.09058616634437</v>
@@ -47266,7 +47068,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.446088999263908</v>
+        <v>1.445027737025629</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.072472329565297</v>
@@ -47355,7 +47157,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.445034988274233</v>
+        <v>1.441313018211393</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.075933688222056</v>
@@ -47444,7 +47246,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441520715740525</v>
+        <v>1.436340190109161</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.069262366514064</v>
@@ -47533,7 +47335,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.444434445919907</v>
+        <v>1.439174155664793</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.059824670922481</v>
@@ -47622,7 +47424,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.437689067797345</v>
+        <v>1.432729065380369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.053999860279276</v>
@@ -47711,7 +47513,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.438227506296977</v>
+        <v>1.433236053492271</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.078798568122441</v>
@@ -47800,7 +47602,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.450359824252945</v>
+        <v>1.444537211346268</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.070874856420199</v>
@@ -47889,7 +47691,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.451633776404962</v>
+        <v>1.448310953925108</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.092699184786722</v>
@@ -47978,7 +47780,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.443734777260969</v>
+        <v>1.44086710330573</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.117057971679977</v>
@@ -48067,7 +47869,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.452866727084408</v>
+        <v>1.450265620654896</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.075104347861734</v>
@@ -48156,7 +47958,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459275444291634</v>
+        <v>1.457922414937576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.060768120440608</v>
@@ -48245,7 +48047,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.468555577236583</v>
+        <v>1.443207544601223</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.732188336277913</v>
@@ -48334,7 +48136,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.414913283521397</v>
+        <v>1.412327075340987</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.890825213995071</v>
@@ -48423,7 +48225,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.416437533450659</v>
+        <v>1.420647790302661</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.366712769967983</v>
@@ -48512,7 +48314,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.425762063052989</v>
+        <v>1.43746533767271</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.522766933937862</v>
@@ -48601,7 +48403,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.415947091978824</v>
+        <v>1.427198920372617</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.625407231949264</v>
@@ -48690,7 +48492,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.397441009645574</v>
+        <v>1.420006282543655</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.328601846889145</v>
@@ -48779,7 +48581,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.395307402733955</v>
+        <v>1.416031511533788</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.356016902272118</v>
@@ -48868,7 +48670,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.391898665408901</v>
+        <v>1.414246439507246</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.425762032683873</v>
@@ -48957,7 +48759,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.398070207578906</v>
+        <v>1.415868212322083</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.399700726594011</v>
@@ -49046,7 +48848,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.398629543450854</v>
+        <v>1.416645257654051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.3928530759955</v>
@@ -49135,7 +48937,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.380863703934537</v>
+        <v>1.396362135846364</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.297360253651473</v>
@@ -49224,7 +49026,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.360626783756854</v>
+        <v>1.367972239825054</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.227468961289306</v>
@@ -49313,7 +49115,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.388517092311013</v>
+        <v>1.404755308585004</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.430153557936491</v>
@@ -49402,7 +49204,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.391351597587536</v>
+        <v>1.405634018913596</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.399804934718544</v>
@@ -49491,7 +49293,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.390520965822985</v>
+        <v>1.402106677598255</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.28618086189896</v>
@@ -49580,7 +49382,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.389284456652541</v>
+        <v>1.404039735711737</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.228846490124842</v>
@@ -49669,7 +49471,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.390606553215199</v>
+        <v>1.405175804006289</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.126120986587518</v>
@@ -49758,7 +49560,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.395591163510388</v>
+        <v>1.412430290703319</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.147688149806421</v>
@@ -49847,7 +49649,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.372248834194963</v>
+        <v>1.389624787799445</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.22782009637106</v>
@@ -49936,7 +49738,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.377704851358967</v>
+        <v>1.395704964363358</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.214827079610275</v>
@@ -50025,7 +49827,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.370704483751861</v>
+        <v>1.386886413223693</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.254938816087463</v>
@@ -50114,7 +49916,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.388671977812064</v>
+        <v>1.335488575382401</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.58293789157792</v>
@@ -50203,7 +50005,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.287879956943195</v>
+        <v>1.283372715856372</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.608687817759229</v>
@@ -50292,7 +50094,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.274536248181898</v>
+        <v>1.275555608315483</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.605642350075943</v>
@@ -50381,7 +50183,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.2666661243291</v>
+        <v>1.266661687946751</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.602846776774901</v>
@@ -50470,7 +50272,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.273620413153964</v>
+        <v>1.2708751371864</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.59747506865094</v>
@@ -50559,7 +50361,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.277243725088002</v>
+        <v>1.275471149058118</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.586608943642119</v>
@@ -50648,7 +50450,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.260552980295266</v>
+        <v>1.255168364740655</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.582382575458747</v>
@@ -50737,7 +50539,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.259759253532029</v>
+        <v>1.251463975047717</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.583011298078094</v>
